--- a/Orcamento.xlsx
+++ b/Orcamento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Orcamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -734,8 +734,8 @@
   </sheetPr>
   <dimension ref="A2:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,8 +835,8 @@
         <v>11</v>
       </c>
       <c r="D8" s="10" t="n">
-        <f aca="false">45000+B17</f>
-        <v>50916</v>
+        <f aca="false">46000+B17</f>
+        <v>51916</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +865,7 @@
       </c>
       <c r="D10" s="10" t="n">
         <f aca="false">D8-D9</f>
-        <v>49416</v>
+        <v>50416</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D25" s="10" t="n">
         <f aca="false">D10+B17</f>
-        <v>55332</v>
+        <v>56332</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D27" s="10" t="n">
         <f aca="false">D25-D26</f>
-        <v>53832</v>
+        <v>54832</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D42" s="10" t="n">
         <f aca="false">D27+B34</f>
-        <v>59748</v>
+        <v>60748</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D44" s="10" t="n">
         <f aca="false">D42-D43</f>
-        <v>58248</v>
+        <v>59248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D59" s="10" t="n">
         <f aca="false">D44+B51</f>
-        <v>64164</v>
+        <v>65164</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D61" s="10" t="n">
         <f aca="false">D59-D60</f>
-        <v>62664</v>
+        <v>63664</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1801,7 +1801,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2012,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
